--- a/118/118.xlsx
+++ b/118/118.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MFT\004-scores\118\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C85973C-F046-4377-BF0F-5627A6803079}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8501C1B4-7B2B-42A1-863F-377503D99022}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>No.</t>
   </si>
@@ -55,12 +55,6 @@
   </si>
   <si>
     <t>MFT</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>MAX</t>
   </si>
   <si>
     <t>Q 01</t>
@@ -82,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0\٫00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -99,6 +93,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -143,20 +144,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF650953"/>
-        <bgColor rgb="FF800080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFE699"/>
         <bgColor rgb="FFFFDAA2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBF819E"/>
-        <bgColor rgb="FF808080"/>
+        <fgColor rgb="FF7030A0"/>
+        <bgColor rgb="FF800080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -198,21 +199,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -286,6 +287,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF660066"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -598,7 +602,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -638,7 +642,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -654,31 +658,31 @@
       <c r="A2" s="3">
         <v>2</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="14">
         <v>10</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="14">
         <f>(15/17)*10+1.5</f>
         <v>10.323529411764707</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="14">
         <v>9.5</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="14">
         <v>10</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="14">
         <v>10</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="14">
         <v>0</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
@@ -686,33 +690,33 @@
       <c r="A3" s="3">
         <v>5</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="14">
         <v>10</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="14">
         <f>(17/17)*10</f>
         <v>10</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="14">
         <v>9.5</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="14">
         <v>10</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="14">
         <f>(10/10)*10</f>
         <v>10</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="14">
         <f>(34/34)*10</f>
         <v>10</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
@@ -720,65 +724,65 @@
       <c r="A4" s="3">
         <v>7</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="14">
         <v>9</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="14">
         <f>(11/17)*10</f>
         <v>6.4705882352941178</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="14">
         <v>9</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="14">
         <v>9.5</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="14">
         <v>0</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="14">
         <v>0</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
@@ -861,11 +865,11 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
@@ -886,7 +890,7 @@
       <c r="F13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -894,145 +898,135 @@
       <c r="A14" s="9">
         <v>2</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <f>SUM(B2:M2)</f>
         <v>49.82352941176471</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <f>(B14*40)/B11</f>
         <v>33.215686274509807</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>10</v>
       </c>
-      <c r="E14" s="13">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14">
-        <f t="shared" ref="F14" si="0">C14+D14+E14</f>
-        <v>43.215686274509807</v>
-      </c>
-      <c r="G14" s="15">
-        <f>((F14-F22)*50)/(F23-F22)+50</f>
-        <v>57.656250000000007</v>
+      <c r="E14" s="12">
+        <v>25</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" ref="F14:G14" si="0">C14+D14+E14</f>
+        <v>68.215686274509807</v>
+      </c>
+      <c r="G14" s="19">
+        <f>F14</f>
+        <v>68.215686274509807</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>5</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <f>SUM(B3:M3)</f>
         <v>59.5</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <f>(B15*40)/B11</f>
         <v>39.666666666666664</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>7</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>55</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <f>C15+D15+E15</f>
         <v>101.66666666666666</v>
       </c>
-      <c r="G15" s="15">
-        <f>((F15-F22)*50)/(F23-F22)+50</f>
-        <v>100</v>
+      <c r="G15" s="19">
+        <f t="shared" ref="G15:G21" si="1">F15</f>
+        <v>101.66666666666666</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>7</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <f>SUM(B4:M4)</f>
         <v>33.970588235294116</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <f>(B16*40)/B11</f>
         <v>22.647058823529409</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>10</v>
       </c>
-      <c r="E16" s="13">
-        <v>0</v>
-      </c>
-      <c r="F16" s="14">
+      <c r="E16" s="12">
+        <v>40</v>
+      </c>
+      <c r="F16" s="13">
         <f>C16+D16+E16</f>
-        <v>32.647058823529406</v>
-      </c>
-      <c r="G16" s="15">
-        <f>((F16-F22)*50)/(F23-F22)+50</f>
-        <v>50</v>
+        <v>72.647058823529406</v>
+      </c>
+      <c r="G16" s="19">
+        <f t="shared" si="1"/>
+        <v>72.647058823529406</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="17">
-        <f>MIN(F14:F21)</f>
-        <v>32.647058823529406</v>
-      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="17">
-        <f>MAX(F14:F18)</f>
-        <v>101.66666666666666</v>
-      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
